--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D890BB42-1CB8-43B1-B31C-DBBF6C723888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56B7C5-FF53-4EA2-BF08-4E54B19BFD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="151">
   <si>
     <t>Kategori1</t>
   </si>
@@ -435,6 +435,60 @@
   </si>
   <si>
     <t>UYFdeBelirtilen</t>
+  </si>
+  <si>
+    <t>Acici_Tipi_opts</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>CMC(H)</t>
+  </si>
+  <si>
+    <t>Mekanik Tambur</t>
+  </si>
+  <si>
+    <t>Mekanikten Hidroliğe Çevirme</t>
+  </si>
+  <si>
+    <t>Cift_Kafa_Var_Yok</t>
+  </si>
+  <si>
+    <t>Mevcut mu?</t>
+  </si>
+  <si>
+    <t>Cift_Kafa_Var_Yok_opts</t>
+  </si>
+  <si>
+    <t>Cift_Kafa_Tipi</t>
+  </si>
+  <si>
+    <t>Çift Kafa Dönüş Tipi</t>
+  </si>
+  <si>
+    <t>Cift_Kafa_Tipi_opts</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Çift Kafalı Dönüş</t>
+  </si>
+  <si>
+    <t>Tek Tambur</t>
+  </si>
+  <si>
+    <t>Manuel Döndürme</t>
+  </si>
+  <si>
+    <t>Otomatik Dönüş Sistemi</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1336,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,15 +2230,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="13.28515625" customWidth="1"/>
+    <col min="1" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2245,17 +2301,78 @@
         <v>122</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,6 +2467,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56B7C5-FF53-4EA2-BF08-4E54B19BFD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E9DBD-724E-4EC1-98F0-7602CAA46BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -2232,7 +2232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -2371,15 +2371,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
         <v>144</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
         <v>130</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
         <v>145</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>146</v>
